--- a/Paperwork/Test Cases/Bootstrap Test Cases.xlsx
+++ b/Paperwork/Test Cases/Bootstrap Test Cases.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tzd_files_7\smu\480\IS480 FYP test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tzd_files_7\smu\480\ChickenDinner\Paperwork\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7B9F6-360C-46F7-9F91-A415F4DD17F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AC348-4B38-4BEC-B292-1A3FF4E38949}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{1649C0AD-CF71-468F-895E-FFB5727DA0B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1649C0AD-CF71-468F-895E-FFB5727DA0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="25-12-2018" sheetId="1" r:id="rId1"/>
+    <sheet name="14-2-2019 " sheetId="2" r:id="rId2"/>
+    <sheet name="21-2-2019  (deployed)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>S/N</t>
   </si>
@@ -149,9 +151,6 @@
   </si>
   <si>
     <t>Successful data update. Database now contains data from the Excel file.</t>
-  </si>
-  <si>
-    <t>Unsuccessful data update with error message "Incomplete/invalid data."</t>
   </si>
   <si>
     <r>
@@ -181,18 +180,6 @@
     <t>Error needs to be caught.</t>
   </si>
   <si>
-    <t>1. If the headers are missing, any existing data below would not be detected.
-2. If only the course coordinator fields are blank, the entire course's details will not be detected and not shown on Track2Career. 
-3. If only the course name fields are blank, the course will still be detected and shown on Track2Career with the course coordinator's name. The course's details are not accessible due to the link to said details disappearing as the course name is missing.
-4. Missing skills will not impact the course's appearance and accessibility on Track2Career.</t>
-  </si>
-  <si>
-    <t>Verify that the bootstrap system will not accept an Excel file with invalid data i.e. missing course details</t>
-  </si>
-  <si>
-    <t>Course list/learning outcomes Excel file with invalid data i.e. missing  data, headers, columns, rows etc.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -212,7 +199,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> The Excel file is still accepted used to update the database. Database now contains incomplete data.</t>
+      <t xml:space="preserve"> App crashes with a data truncation error.</t>
     </r>
   </si>
 </sst>
@@ -378,16 +365,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DAC2EA-BAE8-404D-876B-83DBCF856640}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>10</v>
@@ -868,40 +855,270 @@
         <v>43459</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="238.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECA6BF5-366F-4DC1-AC52-1757942CAD9A}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="238.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43510</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10">
+        <v>43510</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625644BC-C5D6-4CDB-B1B0-17286ACB0F4C}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43510</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10">
-        <v>43459</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="I5" s="10">
+        <v>43510</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
